--- a/Registros/31-10-2025.xlsx
+++ b/Registros/31-10-2025.xlsx
@@ -5,15 +5,13 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Mañana" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Tarde" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Docentes" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>REGISTRO DE ASISTENCIA - SEMESTRAL - MAÑANA</t>
   </si>
@@ -42,18 +40,18 @@
     <t>L, M, MI, J, V</t>
   </si>
   <si>
+    <t>08:40P.M.</t>
+  </si>
+  <si>
+    <t>BERAUN YMBERTIS JO ANN</t>
+  </si>
+  <si>
+    <t>L, M, MI, J, V, S</t>
+  </si>
+  <si>
     <t>FALTA</t>
   </si>
   <si>
-    <t>BERAUN YMBERTIS JO ANN</t>
-  </si>
-  <si>
-    <t>L, M, MI, J, V, S</t>
-  </si>
-  <si>
-    <t>04:42P.M.</t>
-  </si>
-  <si>
     <t>REGISTRO DE ASISTENCIA - ANUAL - MAÑANA</t>
   </si>
   <si>
@@ -70,54 +68,6 @@
   </si>
   <si>
     <t>CURO GONZALES DENNIS</t>
-  </si>
-  <si>
-    <t>REGISTRO DE ASISTENCIA - ANUAL - TARDE</t>
-  </si>
-  <si>
-    <t>GONZALES NAVARRO DANIELA</t>
-  </si>
-  <si>
-    <t>TARDE</t>
-  </si>
-  <si>
-    <t>QUIROZ HOYOS MATHIAS</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ QUISPE SERGIO</t>
-  </si>
-  <si>
-    <t>REGISTRO DE ASISTENCIA - SABATINO - TARDE</t>
-  </si>
-  <si>
-    <t>LOPE CONDORI JEREMY SEBASTIAN</t>
-  </si>
-  <si>
-    <t>ROJAS SANTIAGO DAFNE</t>
-  </si>
-  <si>
-    <t>REGISTRO DE ASISTENCIA - DOCENTES</t>
-  </si>
-  <si>
-    <t>DOCENTE</t>
-  </si>
-  <si>
-    <t>DANIELA CORDOVA</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>JAVIER RAMIREZ</t>
-  </si>
-  <si>
-    <t>MARIA LOPEZ</t>
-  </si>
-  <si>
-    <t>PEDRO VILLALOBOS</t>
-  </si>
-  <si>
-    <t>04:44P.M.</t>
   </si>
 </sst>
 </file>
@@ -145,14 +95,14 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
+      <color rgb="FF9C0006"/>
     </font>
     <font>
       <b/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,22 +116,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1F4E78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
+        <fgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -204,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,12 +162,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,8 +612,8 @@
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -766,280 +700,6 @@
     <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A7:E7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/Registros/31-10-2025.xlsx
+++ b/Registros/31-10-2025.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Mañana" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Tarde" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
-  <si>
-    <t>REGISTRO DE ASISTENCIA - SEMESTRAL - MAÑANA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+  <si>
+    <t>REGISTRO DE ASISTENCIA - SEMESTRAL - TARDE</t>
   </si>
   <si>
     <t>N°</t>
@@ -34,40 +34,37 @@
     <t>ALIAGA URIONDO JHERSON LEONARDO</t>
   </si>
   <si>
-    <t>MAÑANA</t>
-  </si>
-  <si>
-    <t>L, M, MI, J, V</t>
-  </si>
-  <si>
-    <t>08:40P.M.</t>
-  </si>
-  <si>
-    <t>BERAUN YMBERTIS JO ANN</t>
+    <t>TARDE</t>
   </si>
   <si>
     <t>L, M, MI, J, V, S</t>
   </si>
   <si>
+    <t>09:29P.M.</t>
+  </si>
+  <si>
+    <t>REGISTRO DE ASISTENCIA - ANUAL - TARDE</t>
+  </si>
+  <si>
+    <t>GONZALES NAVARRO DANIELA</t>
+  </si>
+  <si>
     <t>FALTA</t>
   </si>
   <si>
-    <t>REGISTRO DE ASISTENCIA - ANUAL - MAÑANA</t>
-  </si>
-  <si>
-    <t>CHUMPITAZ MORENO ADRIANO</t>
-  </si>
-  <si>
-    <t>CONOPUMA ARENAZA PAOLA</t>
-  </si>
-  <si>
-    <t>REGISTRO DE ASISTENCIA - SABATINO - MAÑANA</t>
-  </si>
-  <si>
-    <t>CUBA YARANGA JOSUE RICARCO</t>
-  </si>
-  <si>
-    <t>CURO GONZALES DENNIS</t>
+    <t>QUIROZ HOYOS MATHIAS</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ QUISPE SERGIO</t>
+  </si>
+  <si>
+    <t>REGISTRO DE ASISTENCIA - SABATINO - TARDE</t>
+  </si>
+  <si>
+    <t>LOPE CONDORI JEREMY SEBASTIAN</t>
+  </si>
+  <si>
+    <t>ROJAS SANTIAGO DAFNE</t>
   </si>
 </sst>
 </file>
@@ -95,7 +92,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
     </font>
     <font>
       <b/>
@@ -116,7 +113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -556,61 +553,61 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>12</v>
@@ -618,16 +615,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -635,7 +632,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -664,13 +661,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>12</v>
@@ -681,13 +678,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>12</v>
@@ -696,7 +693,7 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
